--- a/data/neut_plate_reader_data/HC070072.xlsx
+++ b/data/neut_plate_reader_data/HC070072.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/bloom_j/computational_notebooks/reguia/2020/validation/data/neut_plate_reader_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25CE24D-9B33-9C40-BBFD-E81EC0F1B93D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="360" yWindow="2860" windowWidth="27800" windowHeight="12580" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F193D" sheetId="6" r:id="rId1"/>
@@ -12,18 +18,21 @@
     <sheet name="F159G" sheetId="4" r:id="rId3"/>
     <sheet name="F193F" sheetId="3" r:id="rId4"/>
     <sheet name="WT" sheetId="2" r:id="rId5"/>
+    <sheet name="May K189D" sheetId="7" r:id="rId6"/>
+    <sheet name="May K189N" sheetId="8" r:id="rId7"/>
+    <sheet name="May WT" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -109,12 +118,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -200,12 +209,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -267,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -291,12 +300,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -358,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -382,12 +391,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -449,7 +458,280 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -473,7 +755,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="77">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -668,12 +950,48 @@
   </si>
   <si>
     <t>4/28/2020 9:00:16 AM</t>
+  </si>
+  <si>
+    <t>5/9/2020 8:52:58 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 23.7 °C</t>
+  </si>
+  <si>
+    <t>5/9/2020 8:52:00 AM</t>
+  </si>
+  <si>
+    <t>8:51:02 AM</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>5/9/2020 8:50:46 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 23.3 °C</t>
+  </si>
+  <si>
+    <t>5/9/2020 8:49:49 AM</t>
+  </si>
+  <si>
+    <t>8:48:51 AM</t>
+  </si>
+  <si>
+    <t>5/9/2020 8:48:34 AM</t>
+  </si>
+  <si>
+    <t>5/9/2020 8:47:37 AM</t>
+  </si>
+  <si>
+    <t>8:46:38 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -704,7 +1022,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,60 +1073,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFD4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6495ED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF32CD32"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9ACD32"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FBC8B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEB887"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4A460"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD2691E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -837,23 +1101,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6"/>
-    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7"/>
-    <cellStyle name="Tecan.At.Excel.Error" xfId="1"/>
-    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5"/>
-    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3"/>
-    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4"/>
-    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2"/>
+    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Tecan.At.Excel.Error" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -902,7 +1169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -935,9 +1202,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -970,6 +1254,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1145,16 +1446,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1170,7 +1471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1178,7 +1479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1186,7 +1487,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1194,7 +1495,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1202,7 +1503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1210,7 +1511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1218,17 +1519,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1236,12 +1537,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1252,7 +1553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1263,7 +1564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1274,7 +1575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1285,7 +1586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1296,7 +1597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1307,7 +1608,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1318,7 +1619,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1329,7 +1630,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1340,7 +1641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1351,7 +1652,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1359,12 +1660,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1405,7 +1706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -1446,7 +1747,7 @@
         <v>10218</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -1487,7 +1788,7 @@
         <v>13488</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -1528,7 +1829,7 @@
         <v>36642</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -1569,7 +1870,7 @@
         <v>20584</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -1610,7 +1911,7 @@
         <v>20993</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -1651,7 +1952,7 @@
         <v>21097</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -1692,7 +1993,7 @@
         <v>36058</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -1733,7 +2034,7 @@
         <v>9214</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1748,14 +2049,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1763,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1771,7 +2072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1779,7 +2080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1787,7 +2088,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +2096,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1803,7 +2104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1811,7 +2112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1819,17 +2120,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1837,12 +2138,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1853,7 +2154,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1864,7 +2165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1875,7 +2176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1886,7 +2187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1897,7 +2198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1908,7 +2209,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1919,7 +2220,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1930,7 +2231,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1941,7 +2242,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1952,7 +2253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1960,12 +2261,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2006,7 +2307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -2047,7 +2348,7 @@
         <v>14615</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -2088,7 +2389,7 @@
         <v>19025</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -2129,7 +2430,7 @@
         <v>41501</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2170,7 +2471,7 @@
         <v>29799</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2211,7 +2512,7 @@
         <v>29681</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2252,7 +2553,7 @@
         <v>29425</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -2293,7 +2594,7 @@
         <v>39732</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -2334,7 +2635,7 @@
         <v>13425</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2349,16 +2650,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2366,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2374,7 +2675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2382,7 +2683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2390,7 +2691,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2398,7 +2699,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2406,7 +2707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2414,7 +2715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2422,17 +2723,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2440,12 +2741,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2456,7 +2757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2467,7 +2768,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2478,7 +2779,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2489,7 +2790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2500,7 +2801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2511,7 +2812,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2522,7 +2823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2533,7 +2834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2544,7 +2845,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2555,7 +2856,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2563,12 +2864,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2609,7 +2910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -2650,7 +2951,7 @@
         <v>6839</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -2691,7 +2992,7 @@
         <v>10069</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -2732,7 +3033,7 @@
         <v>34687</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2773,7 +3074,7 @@
         <v>16057</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2814,7 +3115,7 @@
         <v>15955</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2855,7 +3156,7 @@
         <v>16183</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -2896,7 +3197,7 @@
         <v>32789</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -2937,7 +3238,7 @@
         <v>6569</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2952,14 +3253,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2967,7 +3268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2975,7 +3276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2983,7 +3284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2991,7 +3292,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2999,7 +3300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3007,7 +3308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3015,7 +3316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3023,17 +3324,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3041,12 +3342,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3057,7 +3358,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3068,7 +3369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3079,7 +3380,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3090,7 +3391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3101,7 +3402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3112,7 +3413,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -3123,7 +3424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3134,7 +3435,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3145,7 +3446,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3156,7 +3457,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3164,12 +3465,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -3210,7 +3511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -3251,7 +3552,7 @@
         <v>13887</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -3292,7 +3593,7 @@
         <v>18818</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -3333,7 +3634,7 @@
         <v>38773</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -3374,7 +3675,7 @@
         <v>29268</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -3415,7 +3716,7 @@
         <v>29041</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -3456,7 +3757,7 @@
         <v>29170</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -3497,7 +3798,7 @@
         <v>37366</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -3538,7 +3839,7 @@
         <v>13075</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -3553,14 +3854,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3568,7 +3869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3576,7 +3877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3584,7 +3885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3592,7 +3893,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3600,7 +3901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3608,7 +3909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3616,7 +3917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3624,17 +3925,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3642,12 +3943,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3658,7 +3959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3669,7 +3970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3680,7 +3981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3691,7 +3992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3702,7 +4003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3713,7 +4014,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -3724,7 +4025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3735,7 +4036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3746,7 +4047,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3757,7 +4058,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3765,12 +4066,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -3811,7 +4112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -3852,7 +4153,7 @@
         <v>18447</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -3893,7 +4194,7 @@
         <v>24489</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -3934,7 +4235,7 @@
         <v>37923</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -3975,7 +4276,7 @@
         <v>38081</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -4016,7 +4317,7 @@
         <v>38364</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -4057,7 +4358,7 @@
         <v>37943</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -4098,7 +4399,7 @@
         <v>37365</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -4139,12 +4440,1815 @@
         <v>17675</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93348682-30D0-E640-9801-8DBD88299F94}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>9104</v>
+      </c>
+      <c r="C32">
+        <v>9379</v>
+      </c>
+      <c r="D32">
+        <v>9350</v>
+      </c>
+      <c r="E32">
+        <v>9518</v>
+      </c>
+      <c r="F32">
+        <v>9471</v>
+      </c>
+      <c r="G32">
+        <v>9602</v>
+      </c>
+      <c r="H32">
+        <v>9714</v>
+      </c>
+      <c r="I32">
+        <v>9553</v>
+      </c>
+      <c r="J32">
+        <v>9716</v>
+      </c>
+      <c r="K32">
+        <v>9391</v>
+      </c>
+      <c r="L32">
+        <v>9432</v>
+      </c>
+      <c r="M32">
+        <v>9199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>11519</v>
+      </c>
+      <c r="C33">
+        <v>11432</v>
+      </c>
+      <c r="D33">
+        <v>11255</v>
+      </c>
+      <c r="E33">
+        <v>11363</v>
+      </c>
+      <c r="F33">
+        <v>11726</v>
+      </c>
+      <c r="G33">
+        <v>11522</v>
+      </c>
+      <c r="H33">
+        <v>11559</v>
+      </c>
+      <c r="I33">
+        <v>11424</v>
+      </c>
+      <c r="J33">
+        <v>11362</v>
+      </c>
+      <c r="K33">
+        <v>11345</v>
+      </c>
+      <c r="L33">
+        <v>11324</v>
+      </c>
+      <c r="M33">
+        <v>11420</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>37108</v>
+      </c>
+      <c r="C34">
+        <v>36949</v>
+      </c>
+      <c r="D34">
+        <v>36755</v>
+      </c>
+      <c r="E34">
+        <v>36567</v>
+      </c>
+      <c r="F34">
+        <v>37272</v>
+      </c>
+      <c r="G34">
+        <v>38092</v>
+      </c>
+      <c r="H34">
+        <v>38150</v>
+      </c>
+      <c r="I34">
+        <v>38700</v>
+      </c>
+      <c r="J34">
+        <v>37143</v>
+      </c>
+      <c r="K34">
+        <v>37456</v>
+      </c>
+      <c r="L34">
+        <v>37003</v>
+      </c>
+      <c r="M34">
+        <v>35932</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>37113</v>
+      </c>
+      <c r="C35">
+        <v>36654</v>
+      </c>
+      <c r="D35">
+        <v>36178</v>
+      </c>
+      <c r="E35">
+        <v>36931</v>
+      </c>
+      <c r="F35">
+        <v>36087</v>
+      </c>
+      <c r="G35">
+        <v>33566</v>
+      </c>
+      <c r="H35">
+        <v>31104</v>
+      </c>
+      <c r="I35">
+        <v>25424</v>
+      </c>
+      <c r="J35">
+        <v>18498</v>
+      </c>
+      <c r="K35">
+        <v>14106</v>
+      </c>
+      <c r="L35">
+        <v>13826</v>
+      </c>
+      <c r="M35">
+        <v>16692</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>36471</v>
+      </c>
+      <c r="C36">
+        <v>35711</v>
+      </c>
+      <c r="D36">
+        <v>34822</v>
+      </c>
+      <c r="E36">
+        <v>34781</v>
+      </c>
+      <c r="F36">
+        <v>34406</v>
+      </c>
+      <c r="G36">
+        <v>33456</v>
+      </c>
+      <c r="H36">
+        <v>29909</v>
+      </c>
+      <c r="I36">
+        <v>24997</v>
+      </c>
+      <c r="J36">
+        <v>18499</v>
+      </c>
+      <c r="K36">
+        <v>13945</v>
+      </c>
+      <c r="L36">
+        <v>13685</v>
+      </c>
+      <c r="M36">
+        <v>16506</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>35556</v>
+      </c>
+      <c r="C37">
+        <v>34766</v>
+      </c>
+      <c r="D37">
+        <v>35049</v>
+      </c>
+      <c r="E37">
+        <v>34348</v>
+      </c>
+      <c r="F37">
+        <v>33500</v>
+      </c>
+      <c r="G37">
+        <v>32279</v>
+      </c>
+      <c r="H37">
+        <v>28836</v>
+      </c>
+      <c r="I37">
+        <v>23956</v>
+      </c>
+      <c r="J37">
+        <v>18312</v>
+      </c>
+      <c r="K37">
+        <v>13822</v>
+      </c>
+      <c r="L37">
+        <v>13492</v>
+      </c>
+      <c r="M37">
+        <v>16368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>35247</v>
+      </c>
+      <c r="C38">
+        <v>34334</v>
+      </c>
+      <c r="D38">
+        <v>34476</v>
+      </c>
+      <c r="E38">
+        <v>35472</v>
+      </c>
+      <c r="F38">
+        <v>33157</v>
+      </c>
+      <c r="G38">
+        <v>34853</v>
+      </c>
+      <c r="H38">
+        <v>34254</v>
+      </c>
+      <c r="I38">
+        <v>33580</v>
+      </c>
+      <c r="J38">
+        <v>33979</v>
+      </c>
+      <c r="K38">
+        <v>33411</v>
+      </c>
+      <c r="L38">
+        <v>35287</v>
+      </c>
+      <c r="M38">
+        <v>33187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>8313</v>
+      </c>
+      <c r="C39">
+        <v>8315</v>
+      </c>
+      <c r="D39">
+        <v>8388</v>
+      </c>
+      <c r="E39">
+        <v>8324</v>
+      </c>
+      <c r="F39">
+        <v>8298</v>
+      </c>
+      <c r="G39">
+        <v>8490</v>
+      </c>
+      <c r="H39">
+        <v>8363</v>
+      </c>
+      <c r="I39">
+        <v>8372</v>
+      </c>
+      <c r="J39">
+        <v>8321</v>
+      </c>
+      <c r="K39">
+        <v>8429</v>
+      </c>
+      <c r="L39">
+        <v>8366</v>
+      </c>
+      <c r="M39">
+        <v>8402</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4EBE4B-40A6-694C-8EDE-A95560CAC82B}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>21796</v>
+      </c>
+      <c r="C32">
+        <v>21944</v>
+      </c>
+      <c r="D32">
+        <v>21908</v>
+      </c>
+      <c r="E32">
+        <v>22008</v>
+      </c>
+      <c r="F32">
+        <v>22142</v>
+      </c>
+      <c r="G32">
+        <v>22308</v>
+      </c>
+      <c r="H32">
+        <v>22132</v>
+      </c>
+      <c r="I32">
+        <v>22085</v>
+      </c>
+      <c r="J32">
+        <v>21973</v>
+      </c>
+      <c r="K32">
+        <v>21966</v>
+      </c>
+      <c r="L32">
+        <v>21572</v>
+      </c>
+      <c r="M32">
+        <v>21443</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>28043</v>
+      </c>
+      <c r="C33">
+        <v>27359</v>
+      </c>
+      <c r="D33">
+        <v>27330</v>
+      </c>
+      <c r="E33">
+        <v>27469</v>
+      </c>
+      <c r="F33">
+        <v>27726</v>
+      </c>
+      <c r="G33">
+        <v>27568</v>
+      </c>
+      <c r="H33">
+        <v>27785</v>
+      </c>
+      <c r="I33">
+        <v>28224</v>
+      </c>
+      <c r="J33">
+        <v>27217</v>
+      </c>
+      <c r="K33">
+        <v>27753</v>
+      </c>
+      <c r="L33">
+        <v>27586</v>
+      </c>
+      <c r="M33">
+        <v>26812</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>40523</v>
+      </c>
+      <c r="C34">
+        <v>40220</v>
+      </c>
+      <c r="D34">
+        <v>36758</v>
+      </c>
+      <c r="E34">
+        <v>40230</v>
+      </c>
+      <c r="F34">
+        <v>40046</v>
+      </c>
+      <c r="G34">
+        <v>41031</v>
+      </c>
+      <c r="H34">
+        <v>43163</v>
+      </c>
+      <c r="I34">
+        <v>42539</v>
+      </c>
+      <c r="J34">
+        <v>41069</v>
+      </c>
+      <c r="K34">
+        <v>40296</v>
+      </c>
+      <c r="L34">
+        <v>40449</v>
+      </c>
+      <c r="M34">
+        <v>40900</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>40447</v>
+      </c>
+      <c r="C35">
+        <v>41070</v>
+      </c>
+      <c r="D35">
+        <v>40263</v>
+      </c>
+      <c r="E35">
+        <v>40572</v>
+      </c>
+      <c r="F35">
+        <v>39741</v>
+      </c>
+      <c r="G35">
+        <v>39003</v>
+      </c>
+      <c r="H35">
+        <v>36732</v>
+      </c>
+      <c r="I35">
+        <v>35507</v>
+      </c>
+      <c r="J35">
+        <v>31516</v>
+      </c>
+      <c r="K35">
+        <v>30341</v>
+      </c>
+      <c r="L35">
+        <v>32676</v>
+      </c>
+      <c r="M35">
+        <v>39869</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>39970</v>
+      </c>
+      <c r="C36">
+        <v>40836</v>
+      </c>
+      <c r="D36">
+        <v>40085</v>
+      </c>
+      <c r="E36">
+        <v>40033</v>
+      </c>
+      <c r="F36">
+        <v>40323</v>
+      </c>
+      <c r="G36">
+        <v>39536</v>
+      </c>
+      <c r="H36">
+        <v>37070</v>
+      </c>
+      <c r="I36">
+        <v>34053</v>
+      </c>
+      <c r="J36">
+        <v>30932</v>
+      </c>
+      <c r="K36">
+        <v>30022</v>
+      </c>
+      <c r="L36">
+        <v>32810</v>
+      </c>
+      <c r="M36">
+        <v>40244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>40515</v>
+      </c>
+      <c r="C37">
+        <v>39573</v>
+      </c>
+      <c r="D37">
+        <v>39942</v>
+      </c>
+      <c r="E37">
+        <v>39367</v>
+      </c>
+      <c r="F37">
+        <v>39433</v>
+      </c>
+      <c r="G37">
+        <v>38227</v>
+      </c>
+      <c r="H37">
+        <v>35807</v>
+      </c>
+      <c r="I37">
+        <v>32920</v>
+      </c>
+      <c r="J37">
+        <v>30788</v>
+      </c>
+      <c r="K37">
+        <v>29794</v>
+      </c>
+      <c r="L37">
+        <v>32775</v>
+      </c>
+      <c r="M37">
+        <v>39984</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>39704</v>
+      </c>
+      <c r="C38">
+        <v>39275</v>
+      </c>
+      <c r="D38">
+        <v>38854</v>
+      </c>
+      <c r="E38">
+        <v>39067</v>
+      </c>
+      <c r="F38">
+        <v>39487</v>
+      </c>
+      <c r="G38">
+        <v>39975</v>
+      </c>
+      <c r="H38">
+        <v>40145</v>
+      </c>
+      <c r="I38">
+        <v>40270</v>
+      </c>
+      <c r="J38">
+        <v>39896</v>
+      </c>
+      <c r="K38">
+        <v>38715</v>
+      </c>
+      <c r="L38">
+        <v>39063</v>
+      </c>
+      <c r="M38">
+        <v>38804</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>20478</v>
+      </c>
+      <c r="C39">
+        <v>20641</v>
+      </c>
+      <c r="D39">
+        <v>20387</v>
+      </c>
+      <c r="E39">
+        <v>20557</v>
+      </c>
+      <c r="F39">
+        <v>20773</v>
+      </c>
+      <c r="G39">
+        <v>20779</v>
+      </c>
+      <c r="H39">
+        <v>20734</v>
+      </c>
+      <c r="I39">
+        <v>20593</v>
+      </c>
+      <c r="J39">
+        <v>20401</v>
+      </c>
+      <c r="K39">
+        <v>20267</v>
+      </c>
+      <c r="L39">
+        <v>20275</v>
+      </c>
+      <c r="M39">
+        <v>20211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DB6856-9DF1-F94D-ABED-8D1C98D5A39C}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>111</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>14248</v>
+      </c>
+      <c r="C32">
+        <v>14488</v>
+      </c>
+      <c r="D32">
+        <v>14542</v>
+      </c>
+      <c r="E32">
+        <v>14674</v>
+      </c>
+      <c r="F32">
+        <v>14700</v>
+      </c>
+      <c r="G32">
+        <v>14816</v>
+      </c>
+      <c r="H32">
+        <v>14801</v>
+      </c>
+      <c r="I32">
+        <v>14650</v>
+      </c>
+      <c r="J32">
+        <v>14539</v>
+      </c>
+      <c r="K32">
+        <v>14284</v>
+      </c>
+      <c r="L32">
+        <v>14220</v>
+      </c>
+      <c r="M32">
+        <v>13943</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>18109</v>
+      </c>
+      <c r="C33">
+        <v>17540</v>
+      </c>
+      <c r="D33">
+        <v>17674</v>
+      </c>
+      <c r="E33">
+        <v>17892</v>
+      </c>
+      <c r="F33">
+        <v>18029</v>
+      </c>
+      <c r="G33">
+        <v>17866</v>
+      </c>
+      <c r="H33">
+        <v>17938</v>
+      </c>
+      <c r="I33">
+        <v>18465</v>
+      </c>
+      <c r="J33">
+        <v>17554</v>
+      </c>
+      <c r="K33">
+        <v>17978</v>
+      </c>
+      <c r="L33">
+        <v>17796</v>
+      </c>
+      <c r="M33">
+        <v>17122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>39594</v>
+      </c>
+      <c r="C34">
+        <v>38963</v>
+      </c>
+      <c r="D34">
+        <v>38272</v>
+      </c>
+      <c r="E34">
+        <v>38881</v>
+      </c>
+      <c r="F34">
+        <v>38746</v>
+      </c>
+      <c r="G34">
+        <v>41718</v>
+      </c>
+      <c r="H34">
+        <v>43171</v>
+      </c>
+      <c r="I34">
+        <v>40609</v>
+      </c>
+      <c r="J34">
+        <v>39823</v>
+      </c>
+      <c r="K34">
+        <v>39737</v>
+      </c>
+      <c r="L34">
+        <v>38782</v>
+      </c>
+      <c r="M34">
+        <v>39533</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>39202</v>
+      </c>
+      <c r="C35">
+        <v>38777</v>
+      </c>
+      <c r="D35">
+        <v>38246</v>
+      </c>
+      <c r="E35">
+        <v>38672</v>
+      </c>
+      <c r="F35">
+        <v>37227</v>
+      </c>
+      <c r="G35">
+        <v>37886</v>
+      </c>
+      <c r="H35">
+        <v>34958</v>
+      </c>
+      <c r="I35">
+        <v>31775</v>
+      </c>
+      <c r="J35">
+        <v>24727</v>
+      </c>
+      <c r="K35">
+        <v>20529</v>
+      </c>
+      <c r="L35">
+        <v>21411</v>
+      </c>
+      <c r="M35">
+        <v>25624</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>36973</v>
+      </c>
+      <c r="C36">
+        <v>36686</v>
+      </c>
+      <c r="D36">
+        <v>37730</v>
+      </c>
+      <c r="E36">
+        <v>36532</v>
+      </c>
+      <c r="F36">
+        <v>37667</v>
+      </c>
+      <c r="G36">
+        <v>37443</v>
+      </c>
+      <c r="H36">
+        <v>33367</v>
+      </c>
+      <c r="I36">
+        <v>28417</v>
+      </c>
+      <c r="J36">
+        <v>24218</v>
+      </c>
+      <c r="K36">
+        <v>20419</v>
+      </c>
+      <c r="L36">
+        <v>21154</v>
+      </c>
+      <c r="M36">
+        <v>25859</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>37941</v>
+      </c>
+      <c r="C37">
+        <v>38505</v>
+      </c>
+      <c r="D37">
+        <v>37018</v>
+      </c>
+      <c r="E37">
+        <v>38381</v>
+      </c>
+      <c r="F37">
+        <v>36995</v>
+      </c>
+      <c r="G37">
+        <v>36651</v>
+      </c>
+      <c r="H37">
+        <v>31993</v>
+      </c>
+      <c r="I37">
+        <v>27958</v>
+      </c>
+      <c r="J37">
+        <v>23204</v>
+      </c>
+      <c r="K37">
+        <v>20237</v>
+      </c>
+      <c r="L37">
+        <v>21200</v>
+      </c>
+      <c r="M37">
+        <v>25935</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>39122</v>
+      </c>
+      <c r="C38">
+        <v>36937</v>
+      </c>
+      <c r="D38">
+        <v>37658</v>
+      </c>
+      <c r="E38">
+        <v>37257</v>
+      </c>
+      <c r="F38">
+        <v>38292</v>
+      </c>
+      <c r="G38">
+        <v>39643</v>
+      </c>
+      <c r="H38">
+        <v>39154</v>
+      </c>
+      <c r="I38">
+        <v>38587</v>
+      </c>
+      <c r="J38">
+        <v>38555</v>
+      </c>
+      <c r="K38">
+        <v>36070</v>
+      </c>
+      <c r="L38">
+        <v>38455</v>
+      </c>
+      <c r="M38">
+        <v>35194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>13384</v>
+      </c>
+      <c r="C39">
+        <v>13670</v>
+      </c>
+      <c r="D39">
+        <v>13699</v>
+      </c>
+      <c r="E39">
+        <v>13856</v>
+      </c>
+      <c r="F39">
+        <v>13887</v>
+      </c>
+      <c r="G39">
+        <v>13924</v>
+      </c>
+      <c r="H39">
+        <v>13895</v>
+      </c>
+      <c r="I39">
+        <v>13897</v>
+      </c>
+      <c r="J39">
+        <v>13761</v>
+      </c>
+      <c r="K39">
+        <v>13650</v>
+      </c>
+      <c r="L39">
+        <v>13531</v>
+      </c>
+      <c r="M39">
+        <v>13066</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
